--- a/Data/EC/NIT-9003949641.xlsx
+++ b/Data/EC/NIT-9003949641.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19FCCE22-B688-4FCA-899B-483E4139020E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95EE1D28-6E29-4477-A439-60F63C348BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86334B76-CA93-4F6E-87E9-147DC234C938}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3B3543E7-0546-45A8-A82C-DC19F583E391}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="568">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -80,6 +80,207 @@
     <t>OSVALDO RAFAEL FUENTES HERRERA</t>
   </si>
   <si>
+    <t>45593316</t>
+  </si>
+  <si>
+    <t>MORALIS ELENA ALVAREZ CUADRO</t>
+  </si>
+  <si>
+    <t>45527887</t>
+  </si>
+  <si>
+    <t>ESPERANZA MARIA CORREA GARRIDO</t>
+  </si>
+  <si>
+    <t>30766507</t>
+  </si>
+  <si>
+    <t>NUBIA DEL CARMEN REVOLLEDO CAICEDO</t>
+  </si>
+  <si>
+    <t>1143354020</t>
+  </si>
+  <si>
+    <t>SANDRA MILENA SIBAJA CANO</t>
+  </si>
+  <si>
+    <t>1019059858</t>
+  </si>
+  <si>
+    <t>LAURA CRISTINA CORREA TORRES</t>
+  </si>
+  <si>
+    <t>73201379</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS MARTINEZ ANILLO</t>
+  </si>
+  <si>
+    <t>1044925072</t>
+  </si>
+  <si>
+    <t>YISELH DEL CARMEN PADILLA GUARDO</t>
+  </si>
+  <si>
+    <t>1007724796</t>
+  </si>
+  <si>
+    <t>MARIA ALEJANDRA ORTEGA CORREA</t>
+  </si>
+  <si>
+    <t>45541099</t>
+  </si>
+  <si>
+    <t>TANIA ANGELICA GARCERANT PAJARO</t>
+  </si>
+  <si>
+    <t>45752964</t>
+  </si>
+  <si>
+    <t>MARIA NELA MORELO BANQUEZ</t>
+  </si>
+  <si>
+    <t>36566033</t>
+  </si>
+  <si>
+    <t>LUZ ENED PEREZ GUTIERREZ</t>
+  </si>
+  <si>
+    <t>49655340</t>
+  </si>
+  <si>
+    <t>CRISTINA MACHUCA OVIEDO</t>
+  </si>
+  <si>
+    <t>1143360166</t>
+  </si>
+  <si>
+    <t>WALTER ANTONIO DIAZ GUERRERO</t>
+  </si>
+  <si>
+    <t>73580280</t>
+  </si>
+  <si>
+    <t>WILFRIDO RAFAEL BARRIOS GARCIA</t>
+  </si>
+  <si>
+    <t>32836421</t>
+  </si>
+  <si>
+    <t>YARIS RAMONA HERNANDEZ CANTILLO</t>
+  </si>
+  <si>
+    <t>22807435</t>
+  </si>
+  <si>
+    <t>OLGA LUCIA ROMERO LEON</t>
+  </si>
+  <si>
+    <t>1129501971</t>
+  </si>
+  <si>
+    <t>KAREN PATRICIA MARTINEZ HERAZO</t>
+  </si>
+  <si>
+    <t>45706111</t>
+  </si>
+  <si>
+    <t>MARI LUDDIS OROZCO TORRES</t>
+  </si>
+  <si>
+    <t>22913371</t>
+  </si>
+  <si>
+    <t>MARLEDIS BARRIOS GARCIA</t>
+  </si>
+  <si>
+    <t>1143338651</t>
+  </si>
+  <si>
+    <t>GREYS CRISTINA CORTES SANMARTIN</t>
+  </si>
+  <si>
+    <t>73291256</t>
+  </si>
+  <si>
+    <t>CRISTIAN JAVIER BARRIOS GARCIA</t>
+  </si>
+  <si>
+    <t>1047418652</t>
+  </si>
+  <si>
+    <t>GUSTAVO ADOLFO VERGARA TOVIO</t>
+  </si>
+  <si>
+    <t>1007713094</t>
+  </si>
+  <si>
+    <t>YARLENSIS ZABALETA DIAZ</t>
+  </si>
+  <si>
+    <t>45474852</t>
+  </si>
+  <si>
+    <t>BERENICE DEL TRANSITO BUSTAMANTE POLO</t>
+  </si>
+  <si>
+    <t>45481568</t>
+  </si>
+  <si>
+    <t>NIVIA ESTER LICONA COA</t>
+  </si>
+  <si>
+    <t>1002494171</t>
+  </si>
+  <si>
+    <t>JESUS DAVID RODRIGUEZ PRASCA</t>
+  </si>
+  <si>
+    <t>73145128</t>
+  </si>
+  <si>
+    <t>TEOFILO RAFAEL PAJARO GAVIRIA</t>
+  </si>
+  <si>
+    <t>1007588759</t>
+  </si>
+  <si>
+    <t>FANNY LUZ CORREA ALVAREZ</t>
+  </si>
+  <si>
+    <t>1007126423</t>
+  </si>
+  <si>
+    <t>ESNEIDER ANDRES BARRIOS MACHUCA</t>
+  </si>
+  <si>
+    <t>1143364476</t>
+  </si>
+  <si>
+    <t>ANGELICA PATRICIA GONZALEZ RAMIREZ</t>
+  </si>
+  <si>
+    <t>1002498565</t>
+  </si>
+  <si>
+    <t>YESICA YULIETH SUAREZ JORDAN</t>
+  </si>
+  <si>
+    <t>1065379262</t>
+  </si>
+  <si>
+    <t>EDELMIRA ISABEL MEZQUIDA PEÃ?AFIEL</t>
+  </si>
+  <si>
+    <t>1002245641</t>
+  </si>
+  <si>
+    <t>ANGY MILENA CALDERON BATISTA</t>
+  </si>
+  <si>
+    <t>2508</t>
+  </si>
+  <si>
     <t>3806834</t>
   </si>
   <si>
@@ -98,12 +299,6 @@
     <t>MELIDA DEL RO MARRUGO PADILLA</t>
   </si>
   <si>
-    <t>45593316</t>
-  </si>
-  <si>
-    <t>MORALIS ELENA ALVAREZ CUADRO</t>
-  </si>
-  <si>
     <t>73095631</t>
   </si>
   <si>
@@ -140,24 +335,12 @@
     <t>EMIGDIO RAFAEL SUMOSA PEREZ</t>
   </si>
   <si>
-    <t>45527887</t>
-  </si>
-  <si>
-    <t>ESPERANZA MARIA CORREA GARRIDO</t>
-  </si>
-  <si>
     <t>49746555</t>
   </si>
   <si>
     <t>YOMALHBIS LUZ FLOREZ PEREZ</t>
   </si>
   <si>
-    <t>30766507</t>
-  </si>
-  <si>
-    <t>NUBIA DEL CARMEN REVOLLEDO CAICEDO</t>
-  </si>
-  <si>
     <t>45539473</t>
   </si>
   <si>
@@ -194,12 +377,6 @@
     <t>ZULY JOHANA SALCEDO FUERTES</t>
   </si>
   <si>
-    <t>45529049</t>
-  </si>
-  <si>
-    <t>MARIA TRINIDAD JIMENEZ OTERO</t>
-  </si>
-  <si>
     <t>1128045869</t>
   </si>
   <si>
@@ -242,18 +419,18 @@
     <t>YORNELIS LUNA PEREZ</t>
   </si>
   <si>
-    <t>30854007</t>
-  </si>
-  <si>
-    <t>MARGARITA ROSA MIRANDA HERRERA</t>
-  </si>
-  <si>
     <t>30764927</t>
   </si>
   <si>
     <t>MONICA MASS AMADOR</t>
   </si>
   <si>
+    <t>1002187722</t>
+  </si>
+  <si>
+    <t>FABIANA LUCIA ACOSTA GARCIA</t>
+  </si>
+  <si>
     <t>1043299544</t>
   </si>
   <si>
@@ -302,6 +479,12 @@
     <t>TATIANA MARGARITA SANCHEZ FERNANDEZ</t>
   </si>
   <si>
+    <t>45525907</t>
+  </si>
+  <si>
+    <t>XIOMARA DE JESUS ORTEGA HERAZO</t>
+  </si>
+  <si>
     <t>1001976101</t>
   </si>
   <si>
@@ -320,10 +503,10 @@
     <t>MARCO TULIO GUTIERREZ TEHERAN</t>
   </si>
   <si>
-    <t>1143354020</t>
-  </si>
-  <si>
-    <t>SANDRA MILENA SIBAJA CANO</t>
+    <t>1047391280</t>
+  </si>
+  <si>
+    <t>ALEXANDER GONZALEZ NISPERUZA</t>
   </si>
   <si>
     <t>45744870</t>
@@ -344,10 +527,10 @@
     <t>NELSON ABRAHAM CASSIANI PEREZ</t>
   </si>
   <si>
-    <t>1019059858</t>
-  </si>
-  <si>
-    <t>LAURA CRISTINA CORREA TORRES</t>
+    <t>1007583489</t>
+  </si>
+  <si>
+    <t>KAREN JULISSA VILLA ESPINOSA</t>
   </si>
   <si>
     <t>45547773</t>
@@ -374,12 +557,6 @@
     <t>JAIRO MARTINEZ MONCARIS</t>
   </si>
   <si>
-    <t>73201379</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS MARTINEZ ANILLO</t>
-  </si>
-  <si>
     <t>1047464561</t>
   </si>
   <si>
@@ -398,18 +575,6 @@
     <t>LESVIA CAMACHO HURTADO</t>
   </si>
   <si>
-    <t>1044925072</t>
-  </si>
-  <si>
-    <t>YISELH DEL CARMEN PADILLA GUARDO</t>
-  </si>
-  <si>
-    <t>1007724796</t>
-  </si>
-  <si>
-    <t>MARIA ALEJANDRA ORTEGA CORREA</t>
-  </si>
-  <si>
     <t>45528681</t>
   </si>
   <si>
@@ -428,12 +593,6 @@
     <t>ROBINSON JOSE RODRIGUEZ MORALES</t>
   </si>
   <si>
-    <t>45541099</t>
-  </si>
-  <si>
-    <t>TANIA ANGELICA GARCERANT PAJARO</t>
-  </si>
-  <si>
     <t>73571165</t>
   </si>
   <si>
@@ -476,18 +635,6 @@
     <t>ROYDILSON ANGEL ROMERO SAN MARTIN</t>
   </si>
   <si>
-    <t>1047421667</t>
-  </si>
-  <si>
-    <t>JOHNANNA PATRICIA PUELLO JIMENEZ</t>
-  </si>
-  <si>
-    <t>45752964</t>
-  </si>
-  <si>
-    <t>MARIA NELA MORELO BANQUEZ</t>
-  </si>
-  <si>
     <t>1042971879</t>
   </si>
   <si>
@@ -506,12 +653,6 @@
     <t>YASMINA ZAPATEIRO HERRERA</t>
   </si>
   <si>
-    <t>9099207</t>
-  </si>
-  <si>
-    <t>HERME VELAIDES GALVIS</t>
-  </si>
-  <si>
     <t>45559550</t>
   </si>
   <si>
@@ -566,6 +707,12 @@
     <t>LESMIRA MARTINEZ TORRES</t>
   </si>
   <si>
+    <t>45531559</t>
+  </si>
+  <si>
+    <t>ZAYDIS PAOLA RODRIGUEZ QUESEDO</t>
+  </si>
+  <si>
     <t>45529934</t>
   </si>
   <si>
@@ -578,15 +725,6 @@
     <t>CANDY FARIDE ALVAREZ BALDIRIS</t>
   </si>
   <si>
-    <t>30776842</t>
-  </si>
-  <si>
-    <t>ROSAURA ESPINOSA AMAYA</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
     <t>30777172</t>
   </si>
   <si>
@@ -599,30 +737,12 @@
     <t>SANDRA PATRICIA GONZALEZ AGUIRRE</t>
   </si>
   <si>
-    <t>36566033</t>
-  </si>
-  <si>
-    <t>LUZ ENED PEREZ GUTIERREZ</t>
-  </si>
-  <si>
-    <t>73353207</t>
-  </si>
-  <si>
-    <t>JEAN CARLOS FLOREZ RUIZ</t>
-  </si>
-  <si>
     <t>45480563</t>
   </si>
   <si>
     <t>GARIS OLIVERA OLIVERA</t>
   </si>
   <si>
-    <t>49655340</t>
-  </si>
-  <si>
-    <t>CRISTINA MACHUCA OVIEDO</t>
-  </si>
-  <si>
     <t>9102646</t>
   </si>
   <si>
@@ -647,12 +767,6 @@
     <t>BIANIS MARIA TAPIA ROMERO</t>
   </si>
   <si>
-    <t>1143360166</t>
-  </si>
-  <si>
-    <t>WALTER ANTONIO DIAZ GUERRERO</t>
-  </si>
-  <si>
     <t>1143387504</t>
   </si>
   <si>
@@ -737,12 +851,6 @@
     <t>LUZ ESTELA JULIO RUIZ</t>
   </si>
   <si>
-    <t>73580280</t>
-  </si>
-  <si>
-    <t>WILFRIDO RAFAEL BARRIOS GARCIA</t>
-  </si>
-  <si>
     <t>1047418158</t>
   </si>
   <si>
@@ -761,12 +869,6 @@
     <t>LUZ DARY PATRON MARQUEZ</t>
   </si>
   <si>
-    <t>1047493268</t>
-  </si>
-  <si>
-    <t>ADRIAN ANYELIS RIVERA MEZA</t>
-  </si>
-  <si>
     <t>45762933</t>
   </si>
   <si>
@@ -803,6 +905,12 @@
     <t>EFRAIN JOSE TORRES GUERRA</t>
   </si>
   <si>
+    <t>1050977472</t>
+  </si>
+  <si>
+    <t>ANDREA CAROLINA SALGADO DOMINGUEZ</t>
+  </si>
+  <si>
     <t>1143407301</t>
   </si>
   <si>
@@ -833,18 +941,18 @@
     <t>MILEIDYS LEON ACOSTA</t>
   </si>
   <si>
-    <t>1049454928</t>
-  </si>
-  <si>
-    <t>EVER DE JESUS MAZZENET CARO</t>
-  </si>
-  <si>
     <t>1050976361</t>
   </si>
   <si>
     <t>DAYANA PATRICIA PATRON BLANCO</t>
   </si>
   <si>
+    <t>1143403872</t>
+  </si>
+  <si>
+    <t>ELKIN DE JESUS BENAVIDES MORALES</t>
+  </si>
+  <si>
     <t>73435249</t>
   </si>
   <si>
@@ -863,6 +971,12 @@
     <t>SANTANDER JOSE CORREA CHIMA</t>
   </si>
   <si>
+    <t>45515367</t>
+  </si>
+  <si>
+    <t>LIA ENITH GOMEZ DE ARCO</t>
+  </si>
+  <si>
     <t>45511377</t>
   </si>
   <si>
@@ -887,6 +1001,12 @@
     <t>DEIDER ANDRES HERNANDEZ GARCIA</t>
   </si>
   <si>
+    <t>45503458</t>
+  </si>
+  <si>
+    <t>YERLIS JUDITH JULIO GONZALEZ</t>
+  </si>
+  <si>
     <t>1007194975</t>
   </si>
   <si>
@@ -899,6 +1019,12 @@
     <t>YOSMAN CARDONA PUELLO</t>
   </si>
   <si>
+    <t>45542780</t>
+  </si>
+  <si>
+    <t>SANDRA MILENA ZABALETA OSPINO</t>
+  </si>
+  <si>
     <t>45487062</t>
   </si>
   <si>
@@ -929,6 +1055,12 @@
     <t>ZENITH TORRES SIMANCAS</t>
   </si>
   <si>
+    <t>45441831</t>
+  </si>
+  <si>
+    <t>ROSA MARGARITA MARTINEZ QUINTANA</t>
+  </si>
+  <si>
     <t>1049939293</t>
   </si>
   <si>
@@ -947,12 +1079,6 @@
     <t>ELISNEY DEL CARMEN PINTO BOLAÑO</t>
   </si>
   <si>
-    <t>32836421</t>
-  </si>
-  <si>
-    <t>YARIS RAMONA HERNANDEZ CANTILLO</t>
-  </si>
-  <si>
     <t>23115979</t>
   </si>
   <si>
@@ -1007,18 +1133,18 @@
     <t>DANIS DEL CARMEN RAMOS RODRIGUEZ</t>
   </si>
   <si>
-    <t>22807435</t>
-  </si>
-  <si>
-    <t>OLGA LUCIA ROMERO LEON</t>
-  </si>
-  <si>
     <t>45539399</t>
   </si>
   <si>
     <t>KAREN LISBETH GONZALEZ HERRERA</t>
   </si>
   <si>
+    <t>73156494</t>
+  </si>
+  <si>
+    <t>EVELIO DE JESUS TRESPALACIOS OROZCO</t>
+  </si>
+  <si>
     <t>1047424789</t>
   </si>
   <si>
@@ -1055,24 +1181,6 @@
     <t>DORA ZUÑIGA DE AVILA</t>
   </si>
   <si>
-    <t>1129501971</t>
-  </si>
-  <si>
-    <t>KAREN PATRICIA MARTINEZ HERAZO</t>
-  </si>
-  <si>
-    <t>45706111</t>
-  </si>
-  <si>
-    <t>MARI LUDDIS OROZCO TORRES</t>
-  </si>
-  <si>
-    <t>22913371</t>
-  </si>
-  <si>
-    <t>MARLEDIS BARRIOS GARCIA</t>
-  </si>
-  <si>
     <t>1143358926</t>
   </si>
   <si>
@@ -1097,6 +1205,12 @@
     <t>RUTH YINA RODRIGUEZ LOPEZ</t>
   </si>
   <si>
+    <t>33311559</t>
+  </si>
+  <si>
+    <t>DIANA PATRICIA VALBUENA AVILA</t>
+  </si>
+  <si>
     <t>22242592</t>
   </si>
   <si>
@@ -1121,16 +1235,10 @@
     <t>DIANA PATRICIA GOMEZ MACHACON</t>
   </si>
   <si>
-    <t>1143338651</t>
-  </si>
-  <si>
-    <t>GREYS CRISTINA CORTES SANMARTIN</t>
-  </si>
-  <si>
-    <t>73291256</t>
-  </si>
-  <si>
-    <t>CRISTIAN JAVIER BARRIOS GARCIA</t>
+    <t>1047396511</t>
+  </si>
+  <si>
+    <t>JOHANDRY ORTEGA BALLESTAS</t>
   </si>
   <si>
     <t>45489929</t>
@@ -1157,18 +1265,6 @@
     <t>DORILZA MARTINEZ MONCARIS</t>
   </si>
   <si>
-    <t>33253574</t>
-  </si>
-  <si>
-    <t>MARIA EUGENIA HERRERA</t>
-  </si>
-  <si>
-    <t>1047418652</t>
-  </si>
-  <si>
-    <t>GUSTAVO ADOLFO VERGARA TOVIO</t>
-  </si>
-  <si>
     <t>84033462</t>
   </si>
   <si>
@@ -1181,18 +1277,6 @@
     <t>ZUNILDA VANESSA VALDES REYES</t>
   </si>
   <si>
-    <t>1007713094</t>
-  </si>
-  <si>
-    <t>YARLENSIS ZABALETA DIAZ</t>
-  </si>
-  <si>
-    <t>45474852</t>
-  </si>
-  <si>
-    <t>BERENICE DEL TRANSITO BUSTAMANTE POLO</t>
-  </si>
-  <si>
     <t>73125829</t>
   </si>
   <si>
@@ -1241,18 +1325,6 @@
     <t>KARINA JULIETH VISBAL TOVAR</t>
   </si>
   <si>
-    <t>45481568</t>
-  </si>
-  <si>
-    <t>NIVIA ESTER LICONA COA</t>
-  </si>
-  <si>
-    <t>1002494171</t>
-  </si>
-  <si>
-    <t>JESUS DAVID RODRIGUEZ PRASCA</t>
-  </si>
-  <si>
     <t>45371661</t>
   </si>
   <si>
@@ -1289,12 +1361,6 @@
     <t>GIANCARLOS ARZUZA NAVARRO</t>
   </si>
   <si>
-    <t>73145128</t>
-  </si>
-  <si>
-    <t>TEOFILO RAFAEL PAJARO GAVIRIA</t>
-  </si>
-  <si>
     <t>1143377411</t>
   </si>
   <si>
@@ -1307,10 +1373,10 @@
     <t>ADELA CHAVEZ MEJIA</t>
   </si>
   <si>
-    <t>1007588759</t>
-  </si>
-  <si>
-    <t>FANNY LUZ CORREA ALVAREZ</t>
+    <t>22815413</t>
+  </si>
+  <si>
+    <t>DORELIS MERCEDES ROJAS NAVARRO</t>
   </si>
   <si>
     <t>1050962918</t>
@@ -1325,18 +1391,6 @@
     <t>FRANCIA ELENA NAVARRO ROMERO</t>
   </si>
   <si>
-    <t>1007126423</t>
-  </si>
-  <si>
-    <t>ESNEIDER ANDRES BARRIOS MACHUCA</t>
-  </si>
-  <si>
-    <t>1047481482</t>
-  </si>
-  <si>
-    <t>ISAURA HERRERA SALGADO</t>
-  </si>
-  <si>
     <t>1070814215</t>
   </si>
   <si>
@@ -1385,12 +1439,6 @@
     <t>WENDY MILENA ESQUIAQUI NUÑEZ</t>
   </si>
   <si>
-    <t>1143364476</t>
-  </si>
-  <si>
-    <t>ANGELICA PATRICIA GONZALEZ RAMIREZ</t>
-  </si>
-  <si>
     <t>1235047309</t>
   </si>
   <si>
@@ -1421,18 +1469,18 @@
     <t>YULEYDIS PATRICIA JULIO VILLAR</t>
   </si>
   <si>
+    <t>1143413663</t>
+  </si>
+  <si>
+    <t>MARINA ESTHER QUEVEDO ESCOBAR</t>
+  </si>
+  <si>
     <t>1143353676</t>
   </si>
   <si>
     <t>JOSE DAVID MARTINEZ RODRIGUEZ</t>
   </si>
   <si>
-    <t>1007254731</t>
-  </si>
-  <si>
-    <t>FEDERMAN JUNIOR ESCOBAR PEREIRA</t>
-  </si>
-  <si>
     <t>1127624596</t>
   </si>
   <si>
@@ -1559,12 +1607,6 @@
     <t>ISABELLA CUELLAR BARCELO</t>
   </si>
   <si>
-    <t>1002498565</t>
-  </si>
-  <si>
-    <t>YESICA YULIETH SUAREZ JORDAN</t>
-  </si>
-  <si>
     <t>1101442149</t>
   </si>
   <si>
@@ -1583,12 +1625,6 @@
     <t>YENIS GEORGINA CARO MIER</t>
   </si>
   <si>
-    <t>1065379262</t>
-  </si>
-  <si>
-    <t>EDELMIRA ISABEL MEZQUIDA PEÃ?AFIEL</t>
-  </si>
-  <si>
     <t>33358311</t>
   </si>
   <si>
@@ -1619,12 +1655,6 @@
     <t>YENEDY ANDREINA CARRASQUERO PEREZ</t>
   </si>
   <si>
-    <t>1002245641</t>
-  </si>
-  <si>
-    <t>ANGY MILENA CALDERON BATISTA</t>
-  </si>
-  <si>
     <t>45535360</t>
   </si>
   <si>
@@ -1647,15 +1677,6 @@
   </si>
   <si>
     <t>KELLY ZARIC IMBRET ATENCIA</t>
-  </si>
-  <si>
-    <t>45747960</t>
-  </si>
-  <si>
-    <t>YENIS YANETH TORDECILLA MARTINEZ</t>
-  </si>
-  <si>
-    <t>2505</t>
   </si>
   <si>
     <t>1049454086</t>
@@ -1784,7 +1805,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1797,9 +1820,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1999,23 +2020,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2043,10 +2064,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2099,7 +2120,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AF43403-3898-863A-A598-37D4103340A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{446ECED0-B2A4-2931-50C9-7B3D338561C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2450,8 +2471,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1464DF-2AEC-4CCE-9947-23393EF56C81}">
-  <dimension ref="B2:J294"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D15730D-7FF3-42FB-BDC2-8BE4978BC8F7}">
+  <dimension ref="B2:J328"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -2475,7 +2496,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -2520,7 +2541,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -2552,12 +2573,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>25131693</v>
+        <v>28523003</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -2568,17 +2589,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="C13" s="5">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="F13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2605,13 +2626,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -2674,10 +2695,10 @@
         <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>160000</v>
+        <v>111680</v>
       </c>
       <c r="G18" s="18">
-        <v>4000000</v>
+        <v>2792018</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -2697,10 +2718,10 @@
         <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>132893</v>
+        <v>91658</v>
       </c>
       <c r="G19" s="18">
-        <v>3322309</v>
+        <v>2291469</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -2720,10 +2741,10 @@
         <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>91658</v>
+        <v>111680</v>
       </c>
       <c r="G20" s="18">
-        <v>2291469</v>
+        <v>2792018</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -2743,10 +2764,10 @@
         <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>111680</v>
+        <v>91658</v>
       </c>
       <c r="G21" s="18">
-        <v>2792018</v>
+        <v>2291469</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -2766,10 +2787,10 @@
         <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>80146</v>
+        <v>100168</v>
       </c>
       <c r="G22" s="18">
-        <v>2003652</v>
+        <v>2504202</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -2789,10 +2810,10 @@
         <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>80146</v>
+        <v>96000</v>
       </c>
       <c r="G23" s="18">
-        <v>2003652</v>
+        <v>2400000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -2812,10 +2833,10 @@
         <v>11</v>
       </c>
       <c r="F24" s="18">
-        <v>73139</v>
+        <v>132893</v>
       </c>
       <c r="G24" s="18">
-        <v>1828460</v>
+        <v>3322309</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -2835,10 +2856,10 @@
         <v>11</v>
       </c>
       <c r="F25" s="18">
-        <v>80146</v>
+        <v>72814</v>
       </c>
       <c r="G25" s="18">
-        <v>2003652</v>
+        <v>1820326</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -2858,10 +2879,10 @@
         <v>11</v>
       </c>
       <c r="F26" s="18">
-        <v>84000</v>
+        <v>104172</v>
       </c>
       <c r="G26" s="18">
-        <v>2100000</v>
+        <v>2604312</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -2881,10 +2902,10 @@
         <v>11</v>
       </c>
       <c r="F27" s="18">
-        <v>80146</v>
+        <v>132893</v>
       </c>
       <c r="G27" s="18">
-        <v>2003652</v>
+        <v>3322309</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -2904,10 +2925,10 @@
         <v>11</v>
       </c>
       <c r="F28" s="18">
-        <v>91658</v>
+        <v>73139</v>
       </c>
       <c r="G28" s="18">
-        <v>2291469</v>
+        <v>1828460</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -2927,10 +2948,10 @@
         <v>11</v>
       </c>
       <c r="F29" s="18">
-        <v>73139</v>
+        <v>111680</v>
       </c>
       <c r="G29" s="18">
-        <v>1828460</v>
+        <v>2792018</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -2950,10 +2971,10 @@
         <v>11</v>
       </c>
       <c r="F30" s="18">
-        <v>111680</v>
+        <v>80146</v>
       </c>
       <c r="G30" s="18">
-        <v>2792018</v>
+        <v>2003652</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -2973,10 +2994,10 @@
         <v>11</v>
       </c>
       <c r="F31" s="18">
-        <v>111680</v>
+        <v>72814</v>
       </c>
       <c r="G31" s="18">
-        <v>0</v>
+        <v>1820326</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -2996,10 +3017,10 @@
         <v>11</v>
       </c>
       <c r="F32" s="18">
-        <v>111680</v>
+        <v>150164</v>
       </c>
       <c r="G32" s="18">
-        <v>2792018</v>
+        <v>3754123</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -3019,10 +3040,10 @@
         <v>11</v>
       </c>
       <c r="F33" s="18">
-        <v>60000</v>
+        <v>150164</v>
       </c>
       <c r="G33" s="18">
-        <v>1500000</v>
+        <v>3754123</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -3065,10 +3086,10 @@
         <v>11</v>
       </c>
       <c r="F35" s="18">
-        <v>111680</v>
+        <v>91658</v>
       </c>
       <c r="G35" s="18">
-        <v>2792018</v>
+        <v>2291469</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -3088,10 +3109,10 @@
         <v>11</v>
       </c>
       <c r="F36" s="18">
-        <v>80146</v>
+        <v>91658</v>
       </c>
       <c r="G36" s="18">
-        <v>2003652</v>
+        <v>2291469</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -3111,10 +3132,10 @@
         <v>11</v>
       </c>
       <c r="F37" s="18">
-        <v>91658</v>
+        <v>111680</v>
       </c>
       <c r="G37" s="18">
-        <v>2291469</v>
+        <v>2792018</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -3134,10 +3155,10 @@
         <v>11</v>
       </c>
       <c r="F38" s="18">
-        <v>91658</v>
+        <v>72814</v>
       </c>
       <c r="G38" s="18">
-        <v>2291469</v>
+        <v>1820326</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -3157,10 +3178,10 @@
         <v>11</v>
       </c>
       <c r="F39" s="18">
-        <v>86400</v>
+        <v>140000</v>
       </c>
       <c r="G39" s="18">
-        <v>2400000</v>
+        <v>3500000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -3180,10 +3201,10 @@
         <v>11</v>
       </c>
       <c r="F40" s="18">
-        <v>80146</v>
+        <v>91658</v>
       </c>
       <c r="G40" s="18">
-        <v>2003652</v>
+        <v>2291469</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -3203,10 +3224,10 @@
         <v>11</v>
       </c>
       <c r="F41" s="18">
-        <v>80146</v>
+        <v>76643</v>
       </c>
       <c r="G41" s="18">
-        <v>2003652</v>
+        <v>1916056</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -3226,10 +3247,10 @@
         <v>11</v>
       </c>
       <c r="F42" s="18">
-        <v>111680</v>
+        <v>91658</v>
       </c>
       <c r="G42" s="18">
-        <v>2792018</v>
+        <v>2291469</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -3249,10 +3270,10 @@
         <v>11</v>
       </c>
       <c r="F43" s="18">
-        <v>73139</v>
+        <v>111680</v>
       </c>
       <c r="G43" s="18">
-        <v>1828460</v>
+        <v>2792018</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -3272,10 +3293,10 @@
         <v>11</v>
       </c>
       <c r="F44" s="18">
-        <v>90000</v>
+        <v>72814</v>
       </c>
       <c r="G44" s="18">
-        <v>2250000</v>
+        <v>1820326</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -3295,10 +3316,10 @@
         <v>11</v>
       </c>
       <c r="F45" s="18">
-        <v>111680</v>
+        <v>132893</v>
       </c>
       <c r="G45" s="18">
-        <v>2792018</v>
+        <v>3322309</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -3318,10 +3339,10 @@
         <v>11</v>
       </c>
       <c r="F46" s="18">
-        <v>72814</v>
+        <v>76643</v>
       </c>
       <c r="G46" s="18">
-        <v>1820326</v>
+        <v>1916056</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -3341,10 +3362,10 @@
         <v>11</v>
       </c>
       <c r="F47" s="18">
-        <v>72814</v>
+        <v>111680</v>
       </c>
       <c r="G47" s="18">
-        <v>1820326</v>
+        <v>2792018</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -3364,10 +3385,10 @@
         <v>11</v>
       </c>
       <c r="F48" s="18">
-        <v>111680</v>
+        <v>72814</v>
       </c>
       <c r="G48" s="18">
-        <v>2792018</v>
+        <v>1820326</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -3387,10 +3408,10 @@
         <v>11</v>
       </c>
       <c r="F49" s="18">
-        <v>76643</v>
+        <v>104172</v>
       </c>
       <c r="G49" s="18">
-        <v>1916056</v>
+        <v>2604312</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -3410,10 +3431,10 @@
         <v>11</v>
       </c>
       <c r="F50" s="18">
-        <v>132893</v>
+        <v>111680</v>
       </c>
       <c r="G50" s="18">
-        <v>3322309</v>
+        <v>2792018</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -3424,13 +3445,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F51" s="18">
         <v>111680</v>
@@ -3447,19 +3468,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F52" s="18">
-        <v>132893</v>
+        <v>111680</v>
       </c>
       <c r="G52" s="18">
-        <v>3322309</v>
+        <v>2792018</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -3470,19 +3491,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F53" s="18">
-        <v>72814</v>
+        <v>160000</v>
       </c>
       <c r="G53" s="18">
-        <v>1820326</v>
+        <v>4000000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -3493,19 +3514,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F54" s="18">
-        <v>76643</v>
+        <v>132893</v>
       </c>
       <c r="G54" s="18">
-        <v>1916056</v>
+        <v>3322309</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -3516,19 +3537,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F55" s="18">
-        <v>111680</v>
+        <v>91658</v>
       </c>
       <c r="G55" s="18">
-        <v>2792018</v>
+        <v>2291469</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -3539,19 +3560,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F56" s="18">
-        <v>72814</v>
+        <v>111680</v>
       </c>
       <c r="G56" s="18">
-        <v>1820326</v>
+        <v>2792018</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -3562,19 +3583,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F57" s="18">
-        <v>72814</v>
+        <v>80146</v>
       </c>
       <c r="G57" s="18">
-        <v>1820326</v>
+        <v>2003652</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -3585,19 +3606,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F58" s="18">
-        <v>91658</v>
+        <v>80146</v>
       </c>
       <c r="G58" s="18">
-        <v>2291469</v>
+        <v>2003652</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -3608,13 +3629,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F59" s="18">
         <v>73139</v>
@@ -3631,19 +3652,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F60" s="18">
-        <v>111680</v>
+        <v>80146</v>
       </c>
       <c r="G60" s="18">
-        <v>2792018</v>
+        <v>2003652</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -3654,19 +3675,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F61" s="18">
-        <v>111680</v>
+        <v>84000</v>
       </c>
       <c r="G61" s="18">
-        <v>2792018</v>
+        <v>2100000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -3677,19 +3698,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F62" s="18">
-        <v>100168</v>
+        <v>80146</v>
       </c>
       <c r="G62" s="18">
-        <v>2504202</v>
+        <v>2003652</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -3700,19 +3721,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F63" s="18">
-        <v>111680</v>
+        <v>91658</v>
       </c>
       <c r="G63" s="18">
-        <v>2792018</v>
+        <v>2291469</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -3723,19 +3744,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F64" s="18">
-        <v>160000</v>
+        <v>73139</v>
       </c>
       <c r="G64" s="18">
-        <v>4000000</v>
+        <v>1828460</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -3746,19 +3767,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F65" s="18">
-        <v>106675</v>
+        <v>111680</v>
       </c>
       <c r="G65" s="18">
-        <v>2666881</v>
+        <v>2792018</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -3769,19 +3790,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F66" s="18">
-        <v>72814</v>
+        <v>111680</v>
       </c>
       <c r="G66" s="18">
-        <v>1820326</v>
+        <v>2792018</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -3792,19 +3813,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F67" s="18">
-        <v>96000</v>
+        <v>111680</v>
       </c>
       <c r="G67" s="18">
-        <v>2400000</v>
+        <v>2792018</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -3815,19 +3836,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F68" s="18">
-        <v>91658</v>
+        <v>60000</v>
       </c>
       <c r="G68" s="18">
-        <v>2291469</v>
+        <v>1500000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -3838,19 +3859,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F69" s="18">
-        <v>72814</v>
+        <v>111680</v>
       </c>
       <c r="G69" s="18">
-        <v>1820326</v>
+        <v>2792018</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -3861,19 +3882,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F70" s="18">
-        <v>80146</v>
+        <v>111680</v>
       </c>
       <c r="G70" s="18">
-        <v>2003652</v>
+        <v>2792018</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -3884,19 +3905,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F71" s="18">
-        <v>132893</v>
+        <v>80146</v>
       </c>
       <c r="G71" s="18">
-        <v>3322309</v>
+        <v>2003652</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -3907,19 +3928,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F72" s="18">
-        <v>72814</v>
+        <v>91658</v>
       </c>
       <c r="G72" s="18">
-        <v>1820326</v>
+        <v>2291469</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -3930,19 +3951,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F73" s="18">
-        <v>91658</v>
+        <v>96000</v>
       </c>
       <c r="G73" s="18">
-        <v>2291469</v>
+        <v>2400000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -3953,19 +3974,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F74" s="18">
-        <v>72814</v>
+        <v>80146</v>
       </c>
       <c r="G74" s="18">
-        <v>1820326</v>
+        <v>2003652</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -3976,19 +3997,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F75" s="18">
-        <v>32000</v>
+        <v>80146</v>
       </c>
       <c r="G75" s="18">
-        <v>1500000</v>
+        <v>2003652</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -3999,19 +4020,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F76" s="18">
-        <v>104172</v>
+        <v>111680</v>
       </c>
       <c r="G76" s="18">
-        <v>2604312</v>
+        <v>2792018</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -4022,19 +4043,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F77" s="18">
-        <v>80146</v>
+        <v>73139</v>
       </c>
       <c r="G77" s="18">
-        <v>2003652</v>
+        <v>1828460</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -4045,19 +4066,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F78" s="18">
-        <v>80146</v>
+        <v>90000</v>
       </c>
       <c r="G78" s="18">
-        <v>2003652</v>
+        <v>2250000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -4068,19 +4089,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F79" s="18">
-        <v>73139</v>
+        <v>72814</v>
       </c>
       <c r="G79" s="18">
-        <v>1828460</v>
+        <v>1820326</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -4091,19 +4112,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F80" s="18">
-        <v>111680</v>
+        <v>57600</v>
       </c>
       <c r="G80" s="18">
-        <v>2792018</v>
+        <v>2400000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -4114,13 +4135,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F81" s="18">
         <v>72814</v>
@@ -4137,19 +4158,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F82" s="18">
-        <v>72814</v>
+        <v>111680</v>
       </c>
       <c r="G82" s="18">
-        <v>1820326</v>
+        <v>2792018</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -4160,19 +4181,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F83" s="18">
-        <v>72814</v>
+        <v>76643</v>
       </c>
       <c r="G83" s="18">
-        <v>1820326</v>
+        <v>1916056</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -4183,19 +4204,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F84" s="18">
-        <v>72000</v>
+        <v>132893</v>
       </c>
       <c r="G84" s="18">
-        <v>1800000</v>
+        <v>3322309</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -4206,19 +4227,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F85" s="18">
-        <v>132893</v>
+        <v>111680</v>
       </c>
       <c r="G85" s="18">
-        <v>3322309</v>
+        <v>2792018</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -4229,19 +4250,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F86" s="18">
-        <v>73139</v>
+        <v>132893</v>
       </c>
       <c r="G86" s="18">
-        <v>1300000</v>
+        <v>3322309</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -4252,19 +4273,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F87" s="18">
-        <v>104172</v>
+        <v>72814</v>
       </c>
       <c r="G87" s="18">
-        <v>2604312</v>
+        <v>1820326</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -4275,19 +4296,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F88" s="18">
-        <v>80146</v>
+        <v>76643</v>
       </c>
       <c r="G88" s="18">
-        <v>2003652</v>
+        <v>1916056</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -4298,19 +4319,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F89" s="18">
-        <v>73139</v>
+        <v>80146</v>
       </c>
       <c r="G89" s="18">
-        <v>765300</v>
+        <v>2003652</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -4321,13 +4342,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F90" s="18">
         <v>111680</v>
@@ -4344,19 +4365,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F91" s="18">
-        <v>72000</v>
+        <v>72814</v>
       </c>
       <c r="G91" s="18">
-        <v>1800000</v>
+        <v>1820326</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -4367,19 +4388,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F92" s="18">
-        <v>111680</v>
+        <v>72814</v>
       </c>
       <c r="G92" s="18">
-        <v>2792018</v>
+        <v>1820326</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -4390,19 +4411,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F93" s="18">
-        <v>76643</v>
+        <v>91658</v>
       </c>
       <c r="G93" s="18">
-        <v>1916056</v>
+        <v>2291469</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -4413,19 +4434,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F94" s="18">
-        <v>91658</v>
+        <v>80146</v>
       </c>
       <c r="G94" s="18">
-        <v>2291469</v>
+        <v>2003652</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -4436,19 +4457,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F95" s="18">
-        <v>80146</v>
+        <v>73139</v>
       </c>
       <c r="G95" s="18">
-        <v>2003652</v>
+        <v>1828460</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -4459,19 +4480,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F96" s="18">
-        <v>80146</v>
+        <v>111680</v>
       </c>
       <c r="G96" s="18">
-        <v>2003652</v>
+        <v>2792018</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -4482,19 +4503,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F97" s="18">
-        <v>73139</v>
+        <v>111680</v>
       </c>
       <c r="G97" s="18">
-        <v>1828460</v>
+        <v>2792018</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -4505,19 +4526,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F98" s="18">
-        <v>111680</v>
+        <v>100168</v>
       </c>
       <c r="G98" s="18">
-        <v>2792018</v>
+        <v>2504202</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -4528,19 +4549,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F99" s="18">
-        <v>73139</v>
+        <v>80146</v>
       </c>
       <c r="G99" s="18">
-        <v>1828460</v>
+        <v>2003652</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -4551,13 +4572,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F100" s="18">
         <v>111680</v>
@@ -4574,13 +4595,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F101" s="18">
         <v>160000</v>
@@ -4597,19 +4618,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="F102" s="18">
-        <v>160000</v>
+        <v>106675</v>
       </c>
       <c r="G102" s="18">
-        <v>4000000</v>
+        <v>2666881</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -4620,19 +4641,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F103" s="18">
-        <v>111680</v>
+        <v>72814</v>
       </c>
       <c r="G103" s="18">
-        <v>2792018</v>
+        <v>1820326</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -4643,19 +4664,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>185</v>
+        <v>24</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F104" s="18">
-        <v>80146</v>
+        <v>96000</v>
       </c>
       <c r="G104" s="18">
-        <v>2003652</v>
+        <v>2400000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -4666,19 +4687,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F105" s="18">
-        <v>73139</v>
+        <v>91658</v>
       </c>
       <c r="G105" s="18">
-        <v>1828460</v>
+        <v>2291469</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -4689,19 +4710,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F106" s="18">
-        <v>80146</v>
+        <v>72814</v>
       </c>
       <c r="G106" s="18">
-        <v>2003652</v>
+        <v>1820326</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -4712,19 +4733,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F107" s="18">
-        <v>127886</v>
+        <v>80146</v>
       </c>
       <c r="G107" s="18">
-        <v>3197171</v>
+        <v>2003652</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -4735,19 +4756,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>194</v>
+        <v>27</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F108" s="18">
-        <v>111680</v>
+        <v>132893</v>
       </c>
       <c r="G108" s="18">
-        <v>2792018</v>
+        <v>3322309</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -4758,19 +4779,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>195</v>
+        <v>28</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F109" s="18">
-        <v>132893</v>
+        <v>72814</v>
       </c>
       <c r="G109" s="18">
-        <v>3322309</v>
+        <v>1820326</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -4781,19 +4802,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F110" s="18">
-        <v>73139</v>
+        <v>91658</v>
       </c>
       <c r="G110" s="18">
-        <v>1828460</v>
+        <v>2291469</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -4804,19 +4825,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F111" s="18">
-        <v>111680</v>
+        <v>72814</v>
       </c>
       <c r="G111" s="18">
-        <v>2792018</v>
+        <v>1820326</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -4827,19 +4848,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F112" s="18">
-        <v>132893</v>
+        <v>70800</v>
       </c>
       <c r="G112" s="18">
-        <v>3322309</v>
+        <v>1770000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -4850,19 +4871,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>203</v>
+        <v>30</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>204</v>
+        <v>31</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F113" s="18">
-        <v>80146</v>
+        <v>104172</v>
       </c>
       <c r="G113" s="18">
-        <v>2003652</v>
+        <v>2604312</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -4873,19 +4894,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F114" s="18">
-        <v>111680</v>
+        <v>80146</v>
       </c>
       <c r="G114" s="18">
-        <v>2792018</v>
+        <v>2003652</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -4896,19 +4917,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F115" s="18">
-        <v>111680</v>
+        <v>80146</v>
       </c>
       <c r="G115" s="18">
-        <v>2792018</v>
+        <v>2003652</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -4919,19 +4940,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F116" s="18">
-        <v>132893</v>
+        <v>73139</v>
       </c>
       <c r="G116" s="18">
-        <v>3322309</v>
+        <v>1828460</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -4942,13 +4963,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F117" s="18">
         <v>111680</v>
@@ -4965,19 +4986,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F118" s="18">
-        <v>84000</v>
+        <v>72814</v>
       </c>
       <c r="G118" s="18">
-        <v>2100000</v>
+        <v>1820326</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -4988,19 +5009,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F119" s="18">
-        <v>91658</v>
+        <v>72814</v>
       </c>
       <c r="G119" s="18">
-        <v>2291469</v>
+        <v>1820326</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -5011,19 +5032,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F120" s="18">
-        <v>111680</v>
+        <v>72814</v>
       </c>
       <c r="G120" s="18">
-        <v>2792018</v>
+        <v>1820326</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -5034,19 +5055,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>219</v>
+        <v>32</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>220</v>
+        <v>33</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F121" s="18">
-        <v>73139</v>
+        <v>132893</v>
       </c>
       <c r="G121" s="18">
-        <v>1828460</v>
+        <v>3322309</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -5057,19 +5078,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F122" s="18">
-        <v>111680</v>
+        <v>73139</v>
       </c>
       <c r="G122" s="18">
-        <v>2792018</v>
+        <v>1828460</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -5080,19 +5101,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F123" s="18">
-        <v>91658</v>
+        <v>104172</v>
       </c>
       <c r="G123" s="18">
-        <v>2291469</v>
+        <v>2604312</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -5103,19 +5124,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F124" s="18">
-        <v>111680</v>
+        <v>80146</v>
       </c>
       <c r="G124" s="18">
-        <v>2792018</v>
+        <v>2003652</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -5126,19 +5147,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F125" s="18">
-        <v>80146</v>
+        <v>111680</v>
       </c>
       <c r="G125" s="18">
-        <v>2003652</v>
+        <v>2792018</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -5149,19 +5170,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F126" s="18">
-        <v>72814</v>
+        <v>72000</v>
       </c>
       <c r="G126" s="18">
-        <v>828116</v>
+        <v>1800000</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -5172,13 +5193,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F127" s="18">
         <v>111680</v>
@@ -5195,19 +5216,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F128" s="18">
-        <v>72814</v>
+        <v>76643</v>
       </c>
       <c r="G128" s="18">
-        <v>1820326</v>
+        <v>1916056</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -5218,19 +5239,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F129" s="18">
-        <v>104172</v>
+        <v>91658</v>
       </c>
       <c r="G129" s="18">
-        <v>2604312</v>
+        <v>2291469</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -5241,19 +5262,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F130" s="18">
-        <v>73139</v>
+        <v>80146</v>
       </c>
       <c r="G130" s="18">
-        <v>1828460</v>
+        <v>2003652</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -5264,19 +5285,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F131" s="18">
-        <v>73139</v>
+        <v>80146</v>
       </c>
       <c r="G131" s="18">
-        <v>1828460</v>
+        <v>2003652</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -5287,19 +5308,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F132" s="18">
-        <v>76643</v>
+        <v>73139</v>
       </c>
       <c r="G132" s="18">
-        <v>1916056</v>
+        <v>1828460</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -5310,19 +5331,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F133" s="18">
-        <v>91658</v>
+        <v>111680</v>
       </c>
       <c r="G133" s="18">
-        <v>2291469</v>
+        <v>2792018</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -5333,13 +5354,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F134" s="18">
         <v>80146</v>
@@ -5356,19 +5377,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F135" s="18">
-        <v>111680</v>
+        <v>73139</v>
       </c>
       <c r="G135" s="18">
-        <v>2792018</v>
+        <v>1828460</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -5379,13 +5400,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F136" s="18">
         <v>111680</v>
@@ -5402,19 +5423,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F137" s="18">
-        <v>73139</v>
+        <v>111680</v>
       </c>
       <c r="G137" s="18">
-        <v>1828460</v>
+        <v>2792018</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -5425,19 +5446,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F138" s="18">
-        <v>111680</v>
+        <v>80146</v>
       </c>
       <c r="G138" s="18">
-        <v>2792018</v>
+        <v>2003652</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -5448,19 +5469,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>255</v>
+        <v>34</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>256</v>
+        <v>35</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F139" s="18">
-        <v>80146</v>
+        <v>73139</v>
       </c>
       <c r="G139" s="18">
-        <v>2003652</v>
+        <v>1828460</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -5471,19 +5492,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F140" s="18">
-        <v>91658</v>
+        <v>127886</v>
       </c>
       <c r="G140" s="18">
-        <v>2291469</v>
+        <v>3197171</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -5494,19 +5515,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>259</v>
+        <v>36</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>260</v>
+        <v>37</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F141" s="18">
-        <v>108000</v>
+        <v>111680</v>
       </c>
       <c r="G141" s="18">
-        <v>2700000</v>
+        <v>2792018</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -5517,19 +5538,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F142" s="18">
-        <v>72814</v>
+        <v>132893</v>
       </c>
       <c r="G142" s="18">
-        <v>1820326</v>
+        <v>3322309</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -5540,13 +5561,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F143" s="18">
         <v>73139</v>
@@ -5563,13 +5584,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F144" s="18">
         <v>111680</v>
@@ -5586,19 +5607,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F145" s="18">
-        <v>111680</v>
+        <v>132893</v>
       </c>
       <c r="G145" s="18">
-        <v>2792018</v>
+        <v>3322309</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -5609,19 +5630,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>269</v>
+        <v>38</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>270</v>
+        <v>39</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F146" s="18">
-        <v>72814</v>
+        <v>80146</v>
       </c>
       <c r="G146" s="18">
-        <v>1820326</v>
+        <v>2003652</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -5632,19 +5653,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F147" s="18">
-        <v>76643</v>
+        <v>111680</v>
       </c>
       <c r="G147" s="18">
-        <v>1916056</v>
+        <v>2792018</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -5655,19 +5676,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F148" s="18">
-        <v>96000</v>
+        <v>111680</v>
       </c>
       <c r="G148" s="18">
-        <v>2400000</v>
+        <v>2792018</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -5678,19 +5699,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F149" s="18">
-        <v>72814</v>
+        <v>132893</v>
       </c>
       <c r="G149" s="18">
-        <v>1820326</v>
+        <v>3322309</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -5701,19 +5722,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F150" s="18">
-        <v>72814</v>
+        <v>111680</v>
       </c>
       <c r="G150" s="18">
-        <v>1820326</v>
+        <v>2792018</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -5724,19 +5745,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F151" s="18">
-        <v>111680</v>
+        <v>84000</v>
       </c>
       <c r="G151" s="18">
-        <v>2792018</v>
+        <v>2100000</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -5747,19 +5768,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F152" s="18">
-        <v>72814</v>
+        <v>91658</v>
       </c>
       <c r="G152" s="18">
-        <v>1820326</v>
+        <v>2291469</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -5770,19 +5791,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F153" s="18">
-        <v>132893</v>
+        <v>111680</v>
       </c>
       <c r="G153" s="18">
-        <v>3322309</v>
+        <v>2792018</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -5793,19 +5814,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F154" s="18">
-        <v>111680</v>
+        <v>73139</v>
       </c>
       <c r="G154" s="18">
-        <v>2792018</v>
+        <v>1828460</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -5816,19 +5837,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F155" s="18">
-        <v>73139</v>
+        <v>111680</v>
       </c>
       <c r="G155" s="18">
-        <v>1828460</v>
+        <v>2792018</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -5839,19 +5860,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F156" s="18">
-        <v>73139</v>
+        <v>91658</v>
       </c>
       <c r="G156" s="18">
-        <v>1828460</v>
+        <v>2291469</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -5862,19 +5883,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F157" s="18">
-        <v>73139</v>
+        <v>111680</v>
       </c>
       <c r="G157" s="18">
-        <v>1828460</v>
+        <v>2792018</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -5885,19 +5906,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F158" s="18">
-        <v>104172</v>
+        <v>80146</v>
       </c>
       <c r="G158" s="18">
-        <v>2604312</v>
+        <v>2003652</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -5908,19 +5929,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F159" s="18">
-        <v>80146</v>
+        <v>72814</v>
       </c>
       <c r="G159" s="18">
-        <v>2003652</v>
+        <v>1820326</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -5931,19 +5952,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F160" s="18">
-        <v>72814</v>
+        <v>111680</v>
       </c>
       <c r="G160" s="18">
-        <v>1820326</v>
+        <v>2792018</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -5954,19 +5975,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>300</v>
+        <v>41</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F161" s="18">
-        <v>73139</v>
+        <v>72814</v>
       </c>
       <c r="G161" s="18">
-        <v>1828460</v>
+        <v>1820326</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -5977,19 +5998,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F162" s="18">
-        <v>72814</v>
+        <v>104172</v>
       </c>
       <c r="G162" s="18">
-        <v>1820326</v>
+        <v>2604312</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -6000,19 +6021,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F163" s="18">
-        <v>150164</v>
+        <v>73139</v>
       </c>
       <c r="G163" s="18">
-        <v>3754123</v>
+        <v>1828460</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -6023,19 +6044,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F164" s="18">
-        <v>72814</v>
+        <v>73139</v>
       </c>
       <c r="G164" s="18">
-        <v>1820326</v>
+        <v>1828460</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -6046,19 +6067,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F165" s="18">
-        <v>73139</v>
+        <v>91658</v>
       </c>
       <c r="G165" s="18">
-        <v>1828460</v>
+        <v>2291469</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -6069,19 +6090,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F166" s="18">
-        <v>72814</v>
+        <v>80146</v>
       </c>
       <c r="G166" s="18">
-        <v>1820326</v>
+        <v>2003652</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -6092,19 +6113,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F167" s="18">
-        <v>73139</v>
+        <v>111680</v>
       </c>
       <c r="G167" s="18">
-        <v>1828460</v>
+        <v>2792018</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -6115,19 +6136,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F168" s="18">
-        <v>73139</v>
+        <v>111680</v>
       </c>
       <c r="G168" s="18">
-        <v>1828460</v>
+        <v>2792018</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -6138,19 +6159,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F169" s="18">
-        <v>122881</v>
+        <v>73139</v>
       </c>
       <c r="G169" s="18">
-        <v>3072033</v>
+        <v>1828460</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -6161,13 +6182,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F170" s="18">
         <v>111680</v>
@@ -6184,19 +6205,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F171" s="18">
-        <v>111680</v>
+        <v>86666</v>
       </c>
       <c r="G171" s="18">
-        <v>2792018</v>
+        <v>2500000</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -6207,19 +6228,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F172" s="18">
-        <v>111680</v>
+        <v>80146</v>
       </c>
       <c r="G172" s="18">
-        <v>2792018</v>
+        <v>2003652</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -6230,19 +6251,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F173" s="18">
-        <v>150164</v>
+        <v>91658</v>
       </c>
       <c r="G173" s="18">
-        <v>3754123</v>
+        <v>2291469</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -6253,19 +6274,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F174" s="18">
-        <v>73139</v>
+        <v>108000</v>
       </c>
       <c r="G174" s="18">
-        <v>1828460</v>
+        <v>2700000</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -6276,19 +6297,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F175" s="18">
-        <v>111680</v>
+        <v>72814</v>
       </c>
       <c r="G175" s="18">
-        <v>2792018</v>
+        <v>1820326</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -6299,19 +6320,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F176" s="18">
-        <v>91658</v>
+        <v>73139</v>
       </c>
       <c r="G176" s="18">
-        <v>2291469</v>
+        <v>1828460</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -6322,19 +6343,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F177" s="18">
-        <v>132893</v>
+        <v>111680</v>
       </c>
       <c r="G177" s="18">
-        <v>3322309</v>
+        <v>2792018</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -6345,19 +6366,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F178" s="18">
-        <v>61334</v>
+        <v>47200</v>
       </c>
       <c r="G178" s="18">
-        <v>2000000</v>
+        <v>1770000</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -6368,19 +6389,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F179" s="18">
-        <v>91658</v>
+        <v>72814</v>
       </c>
       <c r="G179" s="18">
-        <v>2291469</v>
+        <v>1820326</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -6391,19 +6412,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F180" s="18">
-        <v>111680</v>
+        <v>76643</v>
       </c>
       <c r="G180" s="18">
-        <v>2792018</v>
+        <v>1916056</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -6414,19 +6435,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F181" s="18">
-        <v>111680</v>
+        <v>96000</v>
       </c>
       <c r="G181" s="18">
-        <v>2792018</v>
+        <v>2400000</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -6437,19 +6458,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F182" s="18">
-        <v>91658</v>
+        <v>80146</v>
       </c>
       <c r="G182" s="18">
-        <v>2291469</v>
+        <v>2003652</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -6460,19 +6481,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F183" s="18">
-        <v>91658</v>
+        <v>72814</v>
       </c>
       <c r="G183" s="18">
-        <v>2291469</v>
+        <v>1820326</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -6483,19 +6504,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F184" s="18">
-        <v>111680</v>
+        <v>72814</v>
       </c>
       <c r="G184" s="18">
-        <v>2792018</v>
+        <v>1820326</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -6506,19 +6527,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F185" s="18">
-        <v>132893</v>
+        <v>111680</v>
       </c>
       <c r="G185" s="18">
-        <v>3322309</v>
+        <v>2792018</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -6529,19 +6550,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F186" s="18">
-        <v>111680</v>
+        <v>72814</v>
       </c>
       <c r="G186" s="18">
-        <v>2792018</v>
+        <v>1820326</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -6552,19 +6573,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F187" s="18">
-        <v>91658</v>
+        <v>73139</v>
       </c>
       <c r="G187" s="18">
-        <v>2291469</v>
+        <v>1828460</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -6575,19 +6596,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F188" s="18">
-        <v>72814</v>
+        <v>132893</v>
       </c>
       <c r="G188" s="18">
-        <v>1820326</v>
+        <v>3322309</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -6598,19 +6619,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F189" s="18">
-        <v>73139</v>
+        <v>111680</v>
       </c>
       <c r="G189" s="18">
-        <v>1828460</v>
+        <v>2792018</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -6621,13 +6642,13 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F190" s="18">
         <v>73139</v>
@@ -6644,19 +6665,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F191" s="18">
-        <v>72814</v>
+        <v>73139</v>
       </c>
       <c r="G191" s="18">
-        <v>1820326</v>
+        <v>1828460</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -6667,19 +6688,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F192" s="18">
-        <v>111680</v>
+        <v>73139</v>
       </c>
       <c r="G192" s="18">
-        <v>2792018</v>
+        <v>1828460</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -6690,19 +6711,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F193" s="18">
-        <v>72814</v>
+        <v>73139</v>
       </c>
       <c r="G193" s="18">
-        <v>1820326</v>
+        <v>1828460</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -6713,19 +6734,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F194" s="18">
-        <v>132893</v>
+        <v>104172</v>
       </c>
       <c r="G194" s="18">
-        <v>3322309</v>
+        <v>2604312</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -6736,19 +6757,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F195" s="18">
-        <v>132893</v>
+        <v>80146</v>
       </c>
       <c r="G195" s="18">
-        <v>3322309</v>
+        <v>2003652</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -6759,13 +6780,13 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F196" s="18">
         <v>80146</v>
@@ -6782,19 +6803,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F197" s="18">
-        <v>132893</v>
+        <v>72814</v>
       </c>
       <c r="G197" s="18">
-        <v>3322309</v>
+        <v>1820326</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -6805,19 +6826,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F198" s="18">
-        <v>132893</v>
+        <v>73139</v>
       </c>
       <c r="G198" s="18">
-        <v>3322309</v>
+        <v>1828460</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -6828,19 +6849,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F199" s="18">
-        <v>140000</v>
+        <v>72814</v>
       </c>
       <c r="G199" s="18">
-        <v>3500000</v>
+        <v>1820326</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -6851,19 +6872,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>377</v>
+        <v>42</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>378</v>
+        <v>43</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F200" s="18">
-        <v>72814</v>
+        <v>150164</v>
       </c>
       <c r="G200" s="18">
-        <v>1820326</v>
+        <v>3754123</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -6874,19 +6895,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F201" s="18">
-        <v>96000</v>
+        <v>72814</v>
       </c>
       <c r="G201" s="18">
-        <v>2400000</v>
+        <v>1820326</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -6897,19 +6918,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F202" s="18">
-        <v>91658</v>
+        <v>73139</v>
       </c>
       <c r="G202" s="18">
-        <v>2291469</v>
+        <v>1828460</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -6920,19 +6941,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F203" s="18">
-        <v>76643</v>
+        <v>72814</v>
       </c>
       <c r="G203" s="18">
-        <v>1916056</v>
+        <v>1820326</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -6943,19 +6964,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F204" s="18">
-        <v>111680</v>
+        <v>73139</v>
       </c>
       <c r="G204" s="18">
-        <v>2792018</v>
+        <v>1828460</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -6966,19 +6987,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F205" s="18">
-        <v>111680</v>
+        <v>73139</v>
       </c>
       <c r="G205" s="18">
-        <v>2792018</v>
+        <v>1828460</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -6989,19 +7010,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F206" s="18">
-        <v>70800</v>
+        <v>122881</v>
       </c>
       <c r="G206" s="18">
-        <v>1770000</v>
+        <v>3072033</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -7012,19 +7033,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>391</v>
+        <v>359</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F207" s="18">
-        <v>72814</v>
+        <v>111680</v>
       </c>
       <c r="G207" s="18">
-        <v>1820326</v>
+        <v>2792018</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -7035,19 +7056,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F208" s="18">
-        <v>80146</v>
+        <v>111680</v>
       </c>
       <c r="G208" s="18">
-        <v>2003652</v>
+        <v>2792018</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -7058,19 +7079,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F209" s="18">
-        <v>73139</v>
+        <v>111680</v>
       </c>
       <c r="G209" s="18">
-        <v>1828460</v>
+        <v>2792018</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -7081,19 +7102,19 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>397</v>
+        <v>44</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>398</v>
+        <v>45</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F210" s="18">
-        <v>80146</v>
+        <v>150164</v>
       </c>
       <c r="G210" s="18">
-        <v>2003652</v>
+        <v>3754123</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -7104,19 +7125,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F211" s="18">
-        <v>80146</v>
+        <v>73139</v>
       </c>
       <c r="G211" s="18">
-        <v>2003652</v>
+        <v>1828460</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -7127,19 +7148,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F212" s="18">
-        <v>91658</v>
+        <v>80146</v>
       </c>
       <c r="G212" s="18">
-        <v>2291469</v>
+        <v>2003652</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -7150,13 +7171,13 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F213" s="18">
         <v>111680</v>
@@ -7173,19 +7194,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F214" s="18">
-        <v>73139</v>
+        <v>91658</v>
       </c>
       <c r="G214" s="18">
-        <v>1828460</v>
+        <v>2291469</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -7196,19 +7217,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F215" s="18">
-        <v>72814</v>
+        <v>132893</v>
       </c>
       <c r="G215" s="18">
-        <v>1820326</v>
+        <v>3322309</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -7219,19 +7240,19 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F216" s="18">
-        <v>72814</v>
+        <v>80000</v>
       </c>
       <c r="G216" s="18">
-        <v>1820326</v>
+        <v>2000000</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -7242,19 +7263,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F217" s="18">
-        <v>72814</v>
+        <v>91658</v>
       </c>
       <c r="G217" s="18">
-        <v>1820326</v>
+        <v>2291469</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -7265,19 +7286,19 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F218" s="18">
-        <v>72814</v>
+        <v>111680</v>
       </c>
       <c r="G218" s="18">
-        <v>1820326</v>
+        <v>2792018</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -7288,19 +7309,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>415</v>
+        <v>48</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>416</v>
+        <v>49</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F219" s="18">
-        <v>48000</v>
+        <v>91658</v>
       </c>
       <c r="G219" s="18">
-        <v>2400000</v>
+        <v>2291469</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -7311,19 +7332,19 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>417</v>
+        <v>50</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>418</v>
+        <v>51</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F220" s="18">
-        <v>72814</v>
+        <v>91658</v>
       </c>
       <c r="G220" s="18">
-        <v>1820326</v>
+        <v>2291469</v>
       </c>
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
@@ -7334,19 +7355,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F221" s="18">
-        <v>73139</v>
+        <v>111680</v>
       </c>
       <c r="G221" s="18">
-        <v>1828460</v>
+        <v>2792018</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -7357,19 +7378,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F222" s="18">
-        <v>147908</v>
+        <v>132893</v>
       </c>
       <c r="G222" s="18">
-        <v>3697721</v>
+        <v>3322309</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -7380,19 +7401,19 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>423</v>
+        <v>385</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F223" s="18">
-        <v>132893</v>
+        <v>111680</v>
       </c>
       <c r="G223" s="18">
-        <v>3322309</v>
+        <v>2792018</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -7403,19 +7424,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F224" s="18">
-        <v>111680</v>
+        <v>91658</v>
       </c>
       <c r="G224" s="18">
-        <v>2792018</v>
+        <v>2291469</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -7426,19 +7447,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F225" s="18">
-        <v>104172</v>
+        <v>70800</v>
       </c>
       <c r="G225" s="18">
-        <v>2604312</v>
+        <v>1770000</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -7449,19 +7470,19 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>429</v>
+        <v>391</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F226" s="18">
-        <v>76643</v>
+        <v>72814</v>
       </c>
       <c r="G226" s="18">
-        <v>1916056</v>
+        <v>1820326</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -7472,19 +7493,19 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F227" s="18">
-        <v>111680</v>
+        <v>73139</v>
       </c>
       <c r="G227" s="18">
-        <v>2792018</v>
+        <v>1828460</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -7495,19 +7516,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F228" s="18">
-        <v>76643</v>
+        <v>73139</v>
       </c>
       <c r="G228" s="18">
-        <v>1916056</v>
+        <v>1828460</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -7518,19 +7539,19 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F229" s="18">
-        <v>91658</v>
+        <v>72814</v>
       </c>
       <c r="G229" s="18">
-        <v>2291469</v>
+        <v>1820326</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -7541,19 +7562,19 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F230" s="18">
-        <v>111680</v>
+        <v>73139</v>
       </c>
       <c r="G230" s="18">
-        <v>2792018</v>
+        <v>1828460</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -7564,13 +7585,13 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>439</v>
+        <v>52</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>440</v>
+        <v>53</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F231" s="18">
         <v>111680</v>
@@ -7587,19 +7608,19 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>441</v>
+        <v>54</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>442</v>
+        <v>55</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F232" s="18">
-        <v>80146</v>
+        <v>72814</v>
       </c>
       <c r="G232" s="18">
-        <v>2003652</v>
+        <v>1820326</v>
       </c>
       <c r="H232" s="19"/>
       <c r="I232" s="19"/>
@@ -7610,19 +7631,19 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>443</v>
+        <v>401</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>444</v>
+        <v>402</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F233" s="18">
-        <v>72814</v>
+        <v>132893</v>
       </c>
       <c r="G233" s="18">
-        <v>1820326</v>
+        <v>3322309</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -7633,19 +7654,19 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>445</v>
+        <v>403</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>446</v>
+        <v>404</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F234" s="18">
-        <v>72814</v>
+        <v>132893</v>
       </c>
       <c r="G234" s="18">
-        <v>1820326</v>
+        <v>3322309</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -7656,13 +7677,13 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>447</v>
+        <v>405</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>448</v>
+        <v>406</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F235" s="18">
         <v>80146</v>
@@ -7679,19 +7700,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>449</v>
+        <v>407</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F236" s="18">
-        <v>111680</v>
+        <v>132893</v>
       </c>
       <c r="G236" s="18">
-        <v>2792018</v>
+        <v>3322309</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -7702,19 +7723,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>451</v>
+        <v>56</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>452</v>
+        <v>57</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F237" s="18">
-        <v>72814</v>
+        <v>140000</v>
       </c>
       <c r="G237" s="18">
-        <v>1820326</v>
+        <v>3500000</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -7725,19 +7746,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>453</v>
+        <v>409</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>454</v>
+        <v>410</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F238" s="18">
-        <v>80146</v>
+        <v>72814</v>
       </c>
       <c r="G238" s="18">
-        <v>2003652</v>
+        <v>1820326</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -7748,19 +7769,19 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>455</v>
+        <v>411</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F239" s="18">
-        <v>104172</v>
+        <v>96000</v>
       </c>
       <c r="G239" s="18">
-        <v>2604312</v>
+        <v>2400000</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -7771,19 +7792,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>457</v>
+        <v>58</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>458</v>
+        <v>59</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F240" s="18">
-        <v>73139</v>
+        <v>91658</v>
       </c>
       <c r="G240" s="18">
-        <v>1828460</v>
+        <v>2291469</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -7794,19 +7815,19 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>459</v>
+        <v>60</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>460</v>
+        <v>61</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F241" s="18">
-        <v>56940</v>
+        <v>76643</v>
       </c>
       <c r="G241" s="18">
-        <v>1423500</v>
+        <v>1916056</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -7817,19 +7838,19 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>461</v>
+        <v>413</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>462</v>
+        <v>414</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F242" s="18">
-        <v>80146</v>
+        <v>111680</v>
       </c>
       <c r="G242" s="18">
-        <v>2003652</v>
+        <v>2792018</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -7840,19 +7861,19 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>463</v>
+        <v>415</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>464</v>
+        <v>416</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F243" s="18">
-        <v>80146</v>
+        <v>111680</v>
       </c>
       <c r="G243" s="18">
-        <v>2003652</v>
+        <v>2792018</v>
       </c>
       <c r="H243" s="19"/>
       <c r="I243" s="19"/>
@@ -7863,19 +7884,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>463</v>
+        <v>417</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>464</v>
+        <v>418</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="F244" s="18">
-        <v>80146</v>
+        <v>70800</v>
       </c>
       <c r="G244" s="18">
-        <v>2003652</v>
+        <v>1770000</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -7886,19 +7907,19 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>465</v>
+        <v>419</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>466</v>
+        <v>420</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F245" s="18">
-        <v>80146</v>
+        <v>72814</v>
       </c>
       <c r="G245" s="18">
-        <v>2003652</v>
+        <v>1820326</v>
       </c>
       <c r="H245" s="19"/>
       <c r="I245" s="19"/>
@@ -7909,19 +7930,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>467</v>
+        <v>421</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>468</v>
+        <v>422</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F246" s="18">
-        <v>73139</v>
+        <v>80146</v>
       </c>
       <c r="G246" s="18">
-        <v>1828460</v>
+        <v>2003652</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -7932,19 +7953,19 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>469</v>
+        <v>423</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>470</v>
+        <v>424</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F247" s="18">
-        <v>96000</v>
+        <v>73139</v>
       </c>
       <c r="G247" s="18">
-        <v>2400000</v>
+        <v>1828460</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -7955,13 +7976,13 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>471</v>
+        <v>425</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>472</v>
+        <v>426</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F248" s="18">
         <v>80146</v>
@@ -7978,19 +7999,19 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>473</v>
+        <v>427</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>474</v>
+        <v>428</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F249" s="18">
-        <v>91658</v>
+        <v>80146</v>
       </c>
       <c r="G249" s="18">
-        <v>2291469</v>
+        <v>2003652</v>
       </c>
       <c r="H249" s="19"/>
       <c r="I249" s="19"/>
@@ -8001,19 +8022,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>475</v>
+        <v>62</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>476</v>
+        <v>63</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F250" s="18">
-        <v>106675</v>
+        <v>91658</v>
       </c>
       <c r="G250" s="18">
-        <v>2666881</v>
+        <v>2291469</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -8024,13 +8045,13 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>477</v>
+        <v>64</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>478</v>
+        <v>65</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F251" s="18">
         <v>111680</v>
@@ -8047,19 +8068,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>479</v>
+        <v>429</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>480</v>
+        <v>430</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F252" s="18">
-        <v>111680</v>
+        <v>73139</v>
       </c>
       <c r="G252" s="18">
-        <v>2792018</v>
+        <v>1828460</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -8070,13 +8091,13 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>481</v>
+        <v>431</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>482</v>
+        <v>432</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F253" s="18">
         <v>72814</v>
@@ -8093,19 +8114,19 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>483</v>
+        <v>433</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>484</v>
+        <v>434</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F254" s="18">
-        <v>91658</v>
+        <v>72814</v>
       </c>
       <c r="G254" s="18">
-        <v>2291469</v>
+        <v>1820326</v>
       </c>
       <c r="H254" s="19"/>
       <c r="I254" s="19"/>
@@ -8116,19 +8137,19 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>485</v>
+        <v>435</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>486</v>
+        <v>436</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F255" s="18">
-        <v>80146</v>
+        <v>72814</v>
       </c>
       <c r="G255" s="18">
-        <v>2003652</v>
+        <v>1820326</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -8139,19 +8160,19 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>487</v>
+        <v>437</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>488</v>
+        <v>438</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F256" s="18">
-        <v>80146</v>
+        <v>72814</v>
       </c>
       <c r="G256" s="18">
-        <v>2003652</v>
+        <v>1820326</v>
       </c>
       <c r="H256" s="19"/>
       <c r="I256" s="19"/>
@@ -8162,19 +8183,19 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>489</v>
+        <v>439</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>490</v>
+        <v>440</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F257" s="18">
-        <v>72814</v>
+        <v>96000</v>
       </c>
       <c r="G257" s="18">
-        <v>1820326</v>
+        <v>2400000</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -8185,19 +8206,19 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>491</v>
+        <v>66</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>492</v>
+        <v>67</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F258" s="18">
-        <v>80146</v>
+        <v>72814</v>
       </c>
       <c r="G258" s="18">
-        <v>2003652</v>
+        <v>1820326</v>
       </c>
       <c r="H258" s="19"/>
       <c r="I258" s="19"/>
@@ -8208,19 +8229,19 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>493</v>
+        <v>441</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>494</v>
+        <v>442</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F259" s="18">
-        <v>80146</v>
+        <v>73139</v>
       </c>
       <c r="G259" s="18">
-        <v>2003652</v>
+        <v>1828460</v>
       </c>
       <c r="H259" s="19"/>
       <c r="I259" s="19"/>
@@ -8231,19 +8252,19 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>495</v>
+        <v>443</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>496</v>
+        <v>444</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F260" s="18">
-        <v>104172</v>
+        <v>147908</v>
       </c>
       <c r="G260" s="18">
-        <v>2604312</v>
+        <v>3697721</v>
       </c>
       <c r="H260" s="19"/>
       <c r="I260" s="19"/>
@@ -8254,19 +8275,19 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>497</v>
+        <v>68</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>498</v>
+        <v>69</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F261" s="18">
-        <v>76643</v>
+        <v>132893</v>
       </c>
       <c r="G261" s="18">
-        <v>1916056</v>
+        <v>3322309</v>
       </c>
       <c r="H261" s="19"/>
       <c r="I261" s="19"/>
@@ -8277,19 +8298,19 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>499</v>
+        <v>445</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>500</v>
+        <v>446</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F262" s="18">
-        <v>80146</v>
+        <v>76643</v>
       </c>
       <c r="G262" s="18">
-        <v>2003652</v>
+        <v>1916056</v>
       </c>
       <c r="H262" s="19"/>
       <c r="I262" s="19"/>
@@ -8300,19 +8321,19 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>501</v>
+        <v>447</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>502</v>
+        <v>448</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F263" s="18">
-        <v>73139</v>
+        <v>111680</v>
       </c>
       <c r="G263" s="18">
-        <v>1828460</v>
+        <v>2792018</v>
       </c>
       <c r="H263" s="19"/>
       <c r="I263" s="19"/>
@@ -8323,19 +8344,19 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>503</v>
+        <v>449</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>504</v>
+        <v>450</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F264" s="18">
-        <v>132893</v>
+        <v>104172</v>
       </c>
       <c r="G264" s="18">
-        <v>3322309</v>
+        <v>2604312</v>
       </c>
       <c r="H264" s="19"/>
       <c r="I264" s="19"/>
@@ -8346,19 +8367,19 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>505</v>
+        <v>70</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>506</v>
+        <v>71</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F265" s="18">
-        <v>104172</v>
+        <v>76643</v>
       </c>
       <c r="G265" s="18">
-        <v>2604312</v>
+        <v>1916056</v>
       </c>
       <c r="H265" s="19"/>
       <c r="I265" s="19"/>
@@ -8369,19 +8390,19 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>507</v>
+        <v>451</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>508</v>
+        <v>452</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F266" s="18">
-        <v>72814</v>
+        <v>76643</v>
       </c>
       <c r="G266" s="18">
-        <v>1820326</v>
+        <v>1916056</v>
       </c>
       <c r="H266" s="19"/>
       <c r="I266" s="19"/>
@@ -8392,19 +8413,19 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>509</v>
+        <v>453</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>510</v>
+        <v>454</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F267" s="18">
-        <v>73139</v>
+        <v>91658</v>
       </c>
       <c r="G267" s="18">
-        <v>1828460</v>
+        <v>2291469</v>
       </c>
       <c r="H267" s="19"/>
       <c r="I267" s="19"/>
@@ -8415,19 +8436,19 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>511</v>
+        <v>455</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>512</v>
+        <v>456</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F268" s="18">
-        <v>73139</v>
+        <v>111680</v>
       </c>
       <c r="G268" s="18">
-        <v>1828460</v>
+        <v>2792018</v>
       </c>
       <c r="H268" s="19"/>
       <c r="I268" s="19"/>
@@ -8438,19 +8459,19 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>513</v>
+        <v>457</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>514</v>
+        <v>458</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F269" s="18">
-        <v>80146</v>
+        <v>111680</v>
       </c>
       <c r="G269" s="18">
-        <v>2003652</v>
+        <v>2792018</v>
       </c>
       <c r="H269" s="19"/>
       <c r="I269" s="19"/>
@@ -8461,19 +8482,19 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>515</v>
+        <v>459</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>516</v>
+        <v>460</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F270" s="18">
-        <v>104172</v>
+        <v>80146</v>
       </c>
       <c r="G270" s="18">
-        <v>2604312</v>
+        <v>2003652</v>
       </c>
       <c r="H270" s="19"/>
       <c r="I270" s="19"/>
@@ -8484,19 +8505,19 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>517</v>
+        <v>461</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>518</v>
+        <v>462</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F271" s="18">
-        <v>111680</v>
+        <v>72814</v>
       </c>
       <c r="G271" s="18">
-        <v>2792018</v>
+        <v>1820326</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -8507,19 +8528,19 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>519</v>
+        <v>463</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>520</v>
+        <v>464</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F272" s="18">
-        <v>73139</v>
+        <v>72814</v>
       </c>
       <c r="G272" s="18">
-        <v>1828460</v>
+        <v>1820326</v>
       </c>
       <c r="H272" s="19"/>
       <c r="I272" s="19"/>
@@ -8530,19 +8551,19 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>522</v>
+        <v>466</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F273" s="18">
-        <v>72814</v>
+        <v>80146</v>
       </c>
       <c r="G273" s="18">
-        <v>1820326</v>
+        <v>2003652</v>
       </c>
       <c r="H273" s="19"/>
       <c r="I273" s="19"/>
@@ -8553,13 +8574,13 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>523</v>
+        <v>72</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>524</v>
+        <v>73</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F274" s="18">
         <v>111680</v>
@@ -8576,13 +8597,13 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>525</v>
+        <v>467</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>526</v>
+        <v>468</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F275" s="18">
         <v>72814</v>
@@ -8599,19 +8620,19 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>527</v>
+        <v>469</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>528</v>
+        <v>470</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F276" s="18">
-        <v>111680</v>
+        <v>80146</v>
       </c>
       <c r="G276" s="18">
-        <v>2792018</v>
+        <v>2003652</v>
       </c>
       <c r="H276" s="19"/>
       <c r="I276" s="19"/>
@@ -8622,19 +8643,19 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>529</v>
+        <v>471</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>530</v>
+        <v>472</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F277" s="18">
-        <v>72814</v>
+        <v>104172</v>
       </c>
       <c r="G277" s="18">
-        <v>1820326</v>
+        <v>2604312</v>
       </c>
       <c r="H277" s="19"/>
       <c r="I277" s="19"/>
@@ -8645,19 +8666,19 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>531</v>
+        <v>473</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>532</v>
+        <v>474</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F278" s="18">
-        <v>72814</v>
+        <v>73139</v>
       </c>
       <c r="G278" s="18">
-        <v>1820326</v>
+        <v>1828460</v>
       </c>
       <c r="H278" s="19"/>
       <c r="I278" s="19"/>
@@ -8668,19 +8689,19 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>533</v>
+        <v>475</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>534</v>
+        <v>476</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F279" s="18">
-        <v>73139</v>
+        <v>56940</v>
       </c>
       <c r="G279" s="18">
-        <v>1828460</v>
+        <v>1423500</v>
       </c>
       <c r="H279" s="19"/>
       <c r="I279" s="19"/>
@@ -8691,19 +8712,19 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>535</v>
+        <v>477</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>536</v>
+        <v>478</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F280" s="18">
-        <v>111680</v>
+        <v>80146</v>
       </c>
       <c r="G280" s="18">
-        <v>2792018</v>
+        <v>2003652</v>
       </c>
       <c r="H280" s="19"/>
       <c r="I280" s="19"/>
@@ -8714,19 +8735,19 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>537</v>
+        <v>479</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>538</v>
+        <v>480</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F281" s="18">
-        <v>60000</v>
+        <v>80146</v>
       </c>
       <c r="G281" s="18">
-        <v>1500000</v>
+        <v>2003652</v>
       </c>
       <c r="H281" s="19"/>
       <c r="I281" s="19"/>
@@ -8737,19 +8758,19 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>537</v>
+        <v>481</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>538</v>
+        <v>482</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="F282" s="18">
-        <v>60000</v>
+        <v>80146</v>
       </c>
       <c r="G282" s="18">
-        <v>1500000</v>
+        <v>2003652</v>
       </c>
       <c r="H282" s="19"/>
       <c r="I282" s="19"/>
@@ -8760,19 +8781,19 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>537</v>
+        <v>483</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>538</v>
+        <v>484</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>539</v>
+        <v>80</v>
       </c>
       <c r="F283" s="18">
-        <v>4000</v>
+        <v>73139</v>
       </c>
       <c r="G283" s="18">
-        <v>1500000</v>
+        <v>1828460</v>
       </c>
       <c r="H283" s="19"/>
       <c r="I283" s="19"/>
@@ -8783,19 +8804,19 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>540</v>
+        <v>485</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>541</v>
+        <v>486</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F284" s="18">
-        <v>132893</v>
+        <v>96000</v>
       </c>
       <c r="G284" s="18">
-        <v>3322309</v>
+        <v>2400000</v>
       </c>
       <c r="H284" s="19"/>
       <c r="I284" s="19"/>
@@ -8806,19 +8827,19 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>542</v>
+        <v>487</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>543</v>
+        <v>488</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F285" s="18">
-        <v>60000</v>
+        <v>80146</v>
       </c>
       <c r="G285" s="18">
-        <v>1500000</v>
+        <v>2003652</v>
       </c>
       <c r="H285" s="19"/>
       <c r="I285" s="19"/>
@@ -8829,19 +8850,19 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>544</v>
+        <v>489</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>545</v>
+        <v>490</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F286" s="18">
-        <v>104172</v>
+        <v>91658</v>
       </c>
       <c r="G286" s="18">
-        <v>2604312</v>
+        <v>2291469</v>
       </c>
       <c r="H286" s="19"/>
       <c r="I286" s="19"/>
@@ -8852,75 +8873,857 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>546</v>
+        <v>491</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>547</v>
+        <v>492</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F287" s="18">
-        <v>26667</v>
+        <v>106675</v>
       </c>
       <c r="G287" s="18">
-        <v>2500000</v>
+        <v>2666881</v>
       </c>
       <c r="H287" s="19"/>
       <c r="I287" s="19"/>
       <c r="J287" s="20"/>
     </row>
     <row r="288" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B288" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C288" s="22" t="s">
+      <c r="B288" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C288" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="D288" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="E288" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F288" s="18">
+        <v>111680</v>
+      </c>
+      <c r="G288" s="18">
+        <v>2792018</v>
+      </c>
+      <c r="H288" s="19"/>
+      <c r="I288" s="19"/>
+      <c r="J288" s="20"/>
+    </row>
+    <row r="289" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B289" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C289" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="D289" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="E289" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F289" s="18">
+        <v>111680</v>
+      </c>
+      <c r="G289" s="18">
+        <v>2792018</v>
+      </c>
+      <c r="H289" s="19"/>
+      <c r="I289" s="19"/>
+      <c r="J289" s="20"/>
+    </row>
+    <row r="290" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B290" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C290" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="D290" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="E290" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F290" s="18">
+        <v>72814</v>
+      </c>
+      <c r="G290" s="18">
+        <v>1820326</v>
+      </c>
+      <c r="H290" s="19"/>
+      <c r="I290" s="19"/>
+      <c r="J290" s="20"/>
+    </row>
+    <row r="291" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B291" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C291" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="D291" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="E291" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F291" s="18">
+        <v>91658</v>
+      </c>
+      <c r="G291" s="18">
+        <v>2291469</v>
+      </c>
+      <c r="H291" s="19"/>
+      <c r="I291" s="19"/>
+      <c r="J291" s="20"/>
+    </row>
+    <row r="292" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B292" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C292" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="D292" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="E292" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F292" s="18">
+        <v>80146</v>
+      </c>
+      <c r="G292" s="18">
+        <v>2003652</v>
+      </c>
+      <c r="H292" s="19"/>
+      <c r="I292" s="19"/>
+      <c r="J292" s="20"/>
+    </row>
+    <row r="293" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B293" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C293" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="D293" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="E293" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F293" s="18">
+        <v>80146</v>
+      </c>
+      <c r="G293" s="18">
+        <v>2003652</v>
+      </c>
+      <c r="H293" s="19"/>
+      <c r="I293" s="19"/>
+      <c r="J293" s="20"/>
+    </row>
+    <row r="294" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B294" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C294" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="D294" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="E294" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F294" s="18">
+        <v>72814</v>
+      </c>
+      <c r="G294" s="18">
+        <v>1820326</v>
+      </c>
+      <c r="H294" s="19"/>
+      <c r="I294" s="19"/>
+      <c r="J294" s="20"/>
+    </row>
+    <row r="295" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B295" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C295" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="D295" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="E295" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F295" s="18">
+        <v>80146</v>
+      </c>
+      <c r="G295" s="18">
+        <v>2003652</v>
+      </c>
+      <c r="H295" s="19"/>
+      <c r="I295" s="19"/>
+      <c r="J295" s="20"/>
+    </row>
+    <row r="296" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B296" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C296" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="D296" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="E296" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F296" s="18">
+        <v>80146</v>
+      </c>
+      <c r="G296" s="18">
+        <v>2003652</v>
+      </c>
+      <c r="H296" s="19"/>
+      <c r="I296" s="19"/>
+      <c r="J296" s="20"/>
+    </row>
+    <row r="297" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B297" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C297" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="D297" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="E297" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F297" s="18">
+        <v>104172</v>
+      </c>
+      <c r="G297" s="18">
+        <v>2604312</v>
+      </c>
+      <c r="H297" s="19"/>
+      <c r="I297" s="19"/>
+      <c r="J297" s="20"/>
+    </row>
+    <row r="298" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B298" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C298" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="D298" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="E298" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F298" s="18">
+        <v>76643</v>
+      </c>
+      <c r="G298" s="18">
+        <v>1916056</v>
+      </c>
+      <c r="H298" s="19"/>
+      <c r="I298" s="19"/>
+      <c r="J298" s="20"/>
+    </row>
+    <row r="299" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B299" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C299" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="D299" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="E299" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F299" s="18">
+        <v>80146</v>
+      </c>
+      <c r="G299" s="18">
+        <v>2003652</v>
+      </c>
+      <c r="H299" s="19"/>
+      <c r="I299" s="19"/>
+      <c r="J299" s="20"/>
+    </row>
+    <row r="300" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B300" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C300" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="D300" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="E300" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F300" s="18">
+        <v>73139</v>
+      </c>
+      <c r="G300" s="18">
+        <v>1828460</v>
+      </c>
+      <c r="H300" s="19"/>
+      <c r="I300" s="19"/>
+      <c r="J300" s="20"/>
+    </row>
+    <row r="301" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B301" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C301" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="D301" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="E301" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F301" s="18">
+        <v>132893</v>
+      </c>
+      <c r="G301" s="18">
+        <v>3322309</v>
+      </c>
+      <c r="H301" s="19"/>
+      <c r="I301" s="19"/>
+      <c r="J301" s="20"/>
+    </row>
+    <row r="302" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B302" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C302" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="D302" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="E302" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F302" s="18">
+        <v>104172</v>
+      </c>
+      <c r="G302" s="18">
+        <v>2604312</v>
+      </c>
+      <c r="H302" s="19"/>
+      <c r="I302" s="19"/>
+      <c r="J302" s="20"/>
+    </row>
+    <row r="303" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B303" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C303" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D303" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E303" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F303" s="18">
+        <v>72814</v>
+      </c>
+      <c r="G303" s="18">
+        <v>1820326</v>
+      </c>
+      <c r="H303" s="19"/>
+      <c r="I303" s="19"/>
+      <c r="J303" s="20"/>
+    </row>
+    <row r="304" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B304" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C304" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="D304" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="E304" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F304" s="18">
+        <v>73139</v>
+      </c>
+      <c r="G304" s="18">
+        <v>1828460</v>
+      </c>
+      <c r="H304" s="19"/>
+      <c r="I304" s="19"/>
+      <c r="J304" s="20"/>
+    </row>
+    <row r="305" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B305" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C305" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="D305" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="E305" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F305" s="18">
+        <v>73139</v>
+      </c>
+      <c r="G305" s="18">
+        <v>1828460</v>
+      </c>
+      <c r="H305" s="19"/>
+      <c r="I305" s="19"/>
+      <c r="J305" s="20"/>
+    </row>
+    <row r="306" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B306" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C306" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="D306" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="E306" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F306" s="18">
+        <v>80146</v>
+      </c>
+      <c r="G306" s="18">
+        <v>2003652</v>
+      </c>
+      <c r="H306" s="19"/>
+      <c r="I306" s="19"/>
+      <c r="J306" s="20"/>
+    </row>
+    <row r="307" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B307" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C307" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D307" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E307" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F307" s="18">
+        <v>104172</v>
+      </c>
+      <c r="G307" s="18">
+        <v>2604312</v>
+      </c>
+      <c r="H307" s="19"/>
+      <c r="I307" s="19"/>
+      <c r="J307" s="20"/>
+    </row>
+    <row r="308" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B308" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C308" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="D308" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="E308" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F308" s="18">
+        <v>111680</v>
+      </c>
+      <c r="G308" s="18">
+        <v>2792018</v>
+      </c>
+      <c r="H308" s="19"/>
+      <c r="I308" s="19"/>
+      <c r="J308" s="20"/>
+    </row>
+    <row r="309" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B309" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C309" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="D309" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="E309" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F309" s="18">
+        <v>73139</v>
+      </c>
+      <c r="G309" s="18">
+        <v>1828460</v>
+      </c>
+      <c r="H309" s="19"/>
+      <c r="I309" s="19"/>
+      <c r="J309" s="20"/>
+    </row>
+    <row r="310" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B310" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C310" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="D310" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="E310" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F310" s="18">
+        <v>72814</v>
+      </c>
+      <c r="G310" s="18">
+        <v>1820326</v>
+      </c>
+      <c r="H310" s="19"/>
+      <c r="I310" s="19"/>
+      <c r="J310" s="20"/>
+    </row>
+    <row r="311" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B311" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C311" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="D311" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="E311" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F311" s="18">
+        <v>111680</v>
+      </c>
+      <c r="G311" s="18">
+        <v>2792018</v>
+      </c>
+      <c r="H311" s="19"/>
+      <c r="I311" s="19"/>
+      <c r="J311" s="20"/>
+    </row>
+    <row r="312" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B312" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C312" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="D312" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="E312" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F312" s="18">
+        <v>72814</v>
+      </c>
+      <c r="G312" s="18">
+        <v>1820326</v>
+      </c>
+      <c r="H312" s="19"/>
+      <c r="I312" s="19"/>
+      <c r="J312" s="20"/>
+    </row>
+    <row r="313" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B313" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C313" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D313" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E313" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F313" s="18">
+        <v>111680</v>
+      </c>
+      <c r="G313" s="18">
+        <v>2792018</v>
+      </c>
+      <c r="H313" s="19"/>
+      <c r="I313" s="19"/>
+      <c r="J313" s="20"/>
+    </row>
+    <row r="314" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B314" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C314" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="D314" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="E314" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F314" s="18">
+        <v>72814</v>
+      </c>
+      <c r="G314" s="18">
+        <v>1820326</v>
+      </c>
+      <c r="H314" s="19"/>
+      <c r="I314" s="19"/>
+      <c r="J314" s="20"/>
+    </row>
+    <row r="315" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B315" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C315" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="D315" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="E315" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F315" s="18">
+        <v>72814</v>
+      </c>
+      <c r="G315" s="18">
+        <v>1820326</v>
+      </c>
+      <c r="H315" s="19"/>
+      <c r="I315" s="19"/>
+      <c r="J315" s="20"/>
+    </row>
+    <row r="316" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B316" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C316" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="D316" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="E316" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F316" s="18">
+        <v>73139</v>
+      </c>
+      <c r="G316" s="18">
+        <v>1828460</v>
+      </c>
+      <c r="H316" s="19"/>
+      <c r="I316" s="19"/>
+      <c r="J316" s="20"/>
+    </row>
+    <row r="317" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B317" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C317" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="D317" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="E317" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F317" s="18">
+        <v>111680</v>
+      </c>
+      <c r="G317" s="18">
+        <v>2792018</v>
+      </c>
+      <c r="H317" s="19"/>
+      <c r="I317" s="19"/>
+      <c r="J317" s="20"/>
+    </row>
+    <row r="318" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B318" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C318" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="D318" s="17" t="s">
         <v>548</v>
       </c>
-      <c r="D288" s="23" t="s">
+      <c r="E318" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F318" s="18">
+        <v>132893</v>
+      </c>
+      <c r="G318" s="18">
+        <v>3322309</v>
+      </c>
+      <c r="H318" s="19"/>
+      <c r="I318" s="19"/>
+      <c r="J318" s="20"/>
+    </row>
+    <row r="319" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B319" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C319" s="16" t="s">
         <v>549</v>
       </c>
-      <c r="E288" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F288" s="24">
+      <c r="D319" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="E319" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F319" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G319" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H319" s="19"/>
+      <c r="I319" s="19"/>
+      <c r="J319" s="20"/>
+    </row>
+    <row r="320" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B320" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C320" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="D320" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="E320" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F320" s="18">
+        <v>104172</v>
+      </c>
+      <c r="G320" s="18">
+        <v>2604312</v>
+      </c>
+      <c r="H320" s="19"/>
+      <c r="I320" s="19"/>
+      <c r="J320" s="20"/>
+    </row>
+    <row r="321" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B321" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C321" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="D321" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="E321" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F321" s="18">
+        <v>100000</v>
+      </c>
+      <c r="G321" s="18">
+        <v>2500000</v>
+      </c>
+      <c r="H321" s="19"/>
+      <c r="I321" s="19"/>
+      <c r="J321" s="20"/>
+    </row>
+    <row r="322" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B322" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C322" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="D322" s="23" t="s">
+        <v>556</v>
+      </c>
+      <c r="E322" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F322" s="24">
         <v>56940</v>
       </c>
-      <c r="G288" s="24">
+      <c r="G322" s="24">
         <v>1423500</v>
       </c>
-      <c r="H288" s="25"/>
-      <c r="I288" s="25"/>
-      <c r="J288" s="26"/>
-    </row>
-    <row r="293" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B293" s="32" t="s">
-        <v>559</v>
-      </c>
-      <c r="C293" s="32"/>
-      <c r="H293" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="I293" s="1"/>
-      <c r="J293" s="1"/>
-    </row>
-    <row r="294" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B294" s="32" t="s">
-        <v>558</v>
-      </c>
-      <c r="C294" s="32"/>
-      <c r="H294" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="I294" s="1"/>
-      <c r="J294" s="1"/>
+      <c r="H322" s="25"/>
+      <c r="I322" s="25"/>
+      <c r="J322" s="26"/>
+    </row>
+    <row r="327" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B327" s="32" t="s">
+        <v>566</v>
+      </c>
+      <c r="C327" s="32"/>
+      <c r="H327" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="I327" s="1"/>
+      <c r="J327" s="1"/>
+    </row>
+    <row r="328" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B328" s="32" t="s">
+        <v>565</v>
+      </c>
+      <c r="C328" s="32"/>
+      <c r="H328" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="I328" s="1"/>
+      <c r="J328" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B294:C294"/>
-    <mergeCell ref="B293:C293"/>
-    <mergeCell ref="H294:J294"/>
-    <mergeCell ref="H293:J293"/>
+    <mergeCell ref="B328:C328"/>
+    <mergeCell ref="B327:C327"/>
+    <mergeCell ref="H328:J328"/>
+    <mergeCell ref="H327:J327"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
